--- a/story/主线剧情/main/level_main_08-09_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-09_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="204">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="整合运动成员"] ......
 </t>
   </si>
@@ -419,6 +425,406 @@
   </si>
   <si>
     <t xml:space="preserve">[name="盾兵"] 盾兵！　盾を構えろ！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Blocking the way to the control tower... What the hell kind of Reunion operative you are?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Are you joining us, or are you trying to run away?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you want to fight us, that's your perogative! But this is as disgraceful as it is pointless! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Hold up... have you met this squad before?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] No. There’s been a lot of new blood in Reunion ever since we left the tundras. I haven’t ever bothered to get to know any of them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] I’m getting the kind of feeling they’re not...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Guard! Watch out! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"] (Signal)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Ursus troops!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Ugh...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Fall back!! It’s the Ursus! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Not going to say a peep till the very end, huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] What, you think I’m some kind of traitor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You think we’re despicable for turning our backs on Ursus for some lowly Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We’re fighting for their worthless lives, we’re behind the times, and we’ve got no honor, so we should get our names taken off the registers and erased from history?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Maybe you have a husband or a wife, maybe you don’t want to be here, but you still got sent by the higher-ups. You’re just some puppetmaster’s pawn, throwing away your life to do someone else’s bidding...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Pathetic! Pathetic, I tell you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Have you killed any Ursus men before? Was it the Infected or regular citizens that you killed? When you got that blood on your hands, were you even afraid? Does that keep you up at night at all?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] All of you who stayed even after the Emperor died... Pathetic!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Knock it off already! Fall back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Careful! The Ursus troops are wearing Reunion’s—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] No, Guard!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] You mustn’t say that...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] The combatants on both sides will start doubting everyone around them if you say that... The more chaotic the situation is, the more of an advantage they’ll have!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] If everything goes as Elysium planned, then the first thing we need to do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...is to stop everyone right here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] We don’t have much time left, and we have no idea when Reunion will come barging their way to the control tower... It’ll only get harder to organize an attack once that happens!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Not all of us need to fight this battle. We’re up against Talulah. A small, disorganized squad isn’t going to do us any good. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I’ll go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Fall back! Fall back! Watch out for the piledriver spears! Find cover!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] Amiya... Not again... You’re Rhodes Island’s leader!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I’m not going to tell you, “That's all the more reason I should head in there.” ...All I'll say is, if there’s something I can do and something needs to be done, then I’ll do it, and I’ll see it through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] And who’s supposed to cover you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Shieldguards, and that includes anyone who’s injured. Let’s do this. We’ll hold the line here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Feline...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] They’re rounding up all the special Infected and driving them out. So ruthless. They aren’t showing even the tiniest bit of mercy...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I’ll crush their position and ambush point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ...Well then!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Feline, you're the first outsider ever to be backed up by both the Ursus Shieldguards and the guerilla fighters!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The young caster lifts her hand up. She pays no heed to the commotions of the battlefield, as though it matters not the slightest to her. Her eyes gleam with resolve. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up until now, fear and regret have kept her chasing her endless flow of memories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But now, her promise with her friend as well as the responsibility she shares with this embattlement of steel has given her cause to finally stop and rise up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] No, I’m not an outsider.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] We’re a team now. We’ll stop this city together! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] That’s why I’m not an outsider!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Shieldguards! Shields up! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 사령탑 아래를 막고 있는 녀석, 어느 리유니온 소속이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 입단하려는 건가, 아니면 도망치려는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리와 싸우겠다면 막지 않겠다. 하지만 수치스럽고 무의미한 짓이 될 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 잠깐……이 팀 본 적 있어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 모른다. 설원을 떠난 뒤로, 리유니온의 신입엔 흥미가 안 생겨서 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 아무래도 저 녀석들……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 가드 씨, 조심해요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="리유니온 대원"] (암호)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ………
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우르수스군이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 크윽……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 후퇴하라, 우르수스군이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 죽어도 입을 열지 않겠다는 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 속으로 날 배신자라고 생각하겠지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우르수스군을 버리고 더러운 감염자에게 빌붙었다고 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그들처럼 아무런 가치도 없는 생명을 위해 싸운 우리를 세상 물정에 어둡고, 명예롭지도 못하다고 생각하는 건가? 그래서 모든 명단에서 우리 이름을 지워도 된다고 말이지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 가족이 있다면 상급자의 명령으로 이곳에 강제로 끌려와 죽기를 기다리는 신세가 되진 않았을 텐데…… 누군가의 체스 말이 되어 자신의 운명을 남의 손에 맡기지 않았어도 됐을 거야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 가엽게 됐군!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우르수스인을 죽여본 적 있나? 감염자나 민간인은? 손에 묻은 피가 무서워 잠을 설친 적은?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 선황께서 돌아가셨는데도…… 그곳에 남아있다니…… 너희들…… 정말 불쌍하게 됐군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 버티지 말고 빨리 후퇴해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 조심해! 우르수스군이 리유니온의 제복을 입고 있다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 안 돼요, 가드 씨!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그렇게 말하면 안 돼요……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 어쩨서죠?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그렇게 말하면 적과 우리 모두 주변 사람을 의심하게 될 거예요…… 상황이 혼란스러울수록 저들에게는 유리해요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 엘리시움의 예측이 틀림없다면, 지금 우리가 할 수 있는 건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 누가 됐든 전부 다 막아내야 해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 하지만 시간이 별로 없어요, 리유니온이 언제 사령탑으로 몰려들지 모르겠지만…… 그때가 되면 공세를 퍼붓는 게 더 어려워질 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 그러니 이번 전투에 모두가 참전할 필요는 없어요, 어설픈 조직으로는 탈룰라를 상대할 수 없으니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] 제가 갈게요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 후퇴, 후퇴하라! 캐슬브레이커의 사격을 조심해라, 지원 사격을 요청한다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 아미야 씨…… 또…… 하지만 당신은 지금 로도스 아일랜드의 리더잖아요!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] "그러니까 제가 더더욱 가야죠."라는 말은 차마 못 하겠지만…… 그냥 저만이 할 수 있는 일이고, 누군가 꼭 완수해야 한다면 제가 가서, 제가 완수해야 한다고 생각해요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 가드 오퍼레이터?"] 그럼 엄호는 누가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 내가 할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 방패병들, 부상자들을 끌어낸 뒤 전선을 지켜줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 필라인……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 저들은 아직도 특수 감염자들을 가축 몰 듯 부리고 있어. 지독한 놈들이야, 일말의 자비심도 없다니……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 놈들의 진지와 매복 포인트를 내가 처리할게.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……알았다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 필라인, 우르수스 방패병과 유격대 부대의 지원을 받은 외부인은 네가 처음이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전장에 울려 퍼지는 굉음과 비명에 아랑곳하지 않고 앳된 얼굴의 캐스터가 손을 들어 올리는 순간, 그녀의 눈빛이 번쩍하고 빛났다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이전까지, 두려움과 슬픔에 사로잡혔던 그녀는 끊임없이 흘러가는 기억을 하염없이 쫓았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 이제는 친구와의 약속대로, 그녀와 동료들의 공동의 책임이, 그녀의 발걸음을 멈춰 세웠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아니, 난 외부인이 아니야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 우린 지금 한 팀이야, 우리가 이 도시를 멈춰야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그러니까 외부인이 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 방패병! 방패를 들어라!
 </t>
   </si>
 </sst>
@@ -777,426 +1183,738 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
